--- a/storage/app/public/input data/displacements/wca.xlsx
+++ b/storage/app/public/input data/displacements/wca.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\database\public\uploads\displacements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations.sharepoint.com/sites/OCHAROWCA/Information Management/30 DataBase/datas/displacements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8AC1C9-6E5B-4DD0-927B-482C62C0429B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{DA8AC1C9-6E5B-4DD0-927B-482C62C0429B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D1F24934-EBBA-420E-AE06-1E737D35B78B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="156">
   <si>
     <t>Country</t>
   </si>
@@ -304,19 +304,214 @@
   </si>
   <si>
     <t>Returnees former IDPs and rapatried CMP 11 Avr 2019: CMP 31 Dec 2019</t>
+  </si>
+  <si>
+    <t>BF46</t>
+  </si>
+  <si>
+    <t>CONASUR as of 28/02/2021</t>
+  </si>
+  <si>
+    <t>BF47</t>
+  </si>
+  <si>
+    <t>BF13</t>
+  </si>
+  <si>
+    <t>BF48</t>
+  </si>
+  <si>
+    <t>BF49</t>
+  </si>
+  <si>
+    <t>BF50</t>
+  </si>
+  <si>
+    <t>BF51</t>
+  </si>
+  <si>
+    <t>BF52</t>
+  </si>
+  <si>
+    <t>BF53</t>
+  </si>
+  <si>
+    <t>BF54</t>
+  </si>
+  <si>
+    <t>BF55</t>
+  </si>
+  <si>
+    <t>BF56</t>
+  </si>
+  <si>
+    <t>BF57</t>
+  </si>
+  <si>
+    <t>Cameroon (Extreme-Nord Only)</t>
+  </si>
+  <si>
+    <t>CM04</t>
+  </si>
+  <si>
+    <t>IOM DTM Round 21</t>
+  </si>
+  <si>
+    <t>TD07</t>
+  </si>
+  <si>
+    <t>DTM Round 13</t>
+  </si>
+  <si>
+    <t>ML09</t>
+  </si>
+  <si>
+    <t>CMP 30 Janvier 2021</t>
+  </si>
+  <si>
+    <t>ML07</t>
+  </si>
+  <si>
+    <t>ML01</t>
+  </si>
+  <si>
+    <t>ML08</t>
+  </si>
+  <si>
+    <t>ML02</t>
+  </si>
+  <si>
+    <t>ML05</t>
+  </si>
+  <si>
+    <t>ML04</t>
+  </si>
+  <si>
+    <t>ML03</t>
+  </si>
+  <si>
+    <t>ML06</t>
+  </si>
+  <si>
+    <t>NE02</t>
+  </si>
+  <si>
+    <t>UNHCR Niger Population of Concern 28 February 2021</t>
+  </si>
+  <si>
+    <t>NE04</t>
+  </si>
+  <si>
+    <t>NE08</t>
+  </si>
+  <si>
+    <t>NG02</t>
+  </si>
+  <si>
+    <t>IOM DTM Round 35</t>
+  </si>
+  <si>
+    <t>NG08</t>
+  </si>
+  <si>
+    <t>NG36</t>
+  </si>
+  <si>
+    <t>TD20</t>
+  </si>
+  <si>
+    <t>Not available on admin1 level</t>
+  </si>
+  <si>
+    <t>Ennedi Ouest</t>
+  </si>
+  <si>
+    <t>TD23</t>
+  </si>
+  <si>
+    <t>Source : OIM Lac DTM Round 13, Sud DTM round 2, UNHCR statistiques de Novembre 2020</t>
+  </si>
+  <si>
+    <t>Chad (excluding CAR refugees)</t>
+  </si>
+  <si>
+    <t>TD09</t>
+  </si>
+  <si>
+    <t>Mandoul</t>
+  </si>
+  <si>
+    <t>TD10</t>
+  </si>
+  <si>
+    <t>TD11</t>
+  </si>
+  <si>
+    <t>TD13</t>
+  </si>
+  <si>
+    <t>TD18</t>
+  </si>
+  <si>
+    <t>TD14</t>
+  </si>
+  <si>
+    <t>TD15</t>
+  </si>
+  <si>
+    <t>TD21</t>
+  </si>
+  <si>
+    <t>TD17</t>
+  </si>
+  <si>
+    <t>Dakhlet-Nouadhibou</t>
+  </si>
+  <si>
+    <t>UNHCR Data Portal updated as of 30/01/2021</t>
+  </si>
+  <si>
+    <t>Agadez</t>
+  </si>
+  <si>
+    <t>NE01</t>
+  </si>
+  <si>
+    <t>Zinder</t>
+  </si>
+  <si>
+    <t>NE07</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>UNHCR as of 31/01/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -339,9 +534,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,8 +562,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40130A66-C840-49DE-ABC0-EFD791C7B012}" name="Tableau1" displayName="Tableau1" ref="A1:H144" totalsRowShown="0">
-  <autoFilter ref="A1:H144" xr:uid="{9F9617B1-413C-4756-ABAE-AE0530F37F96}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40130A66-C840-49DE-ABC0-EFD791C7B012}" name="Tableau1" displayName="Tableau1" ref="A1:H199" totalsRowShown="0">
+  <autoFilter ref="A1:H199" xr:uid="{9F9617B1-413C-4756-ABAE-AE0530F37F96}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B0249C05-6DB6-45C5-8513-59BC87F337E6}" name="Country"/>
     <tableColumn id="2" xr3:uid="{EDAAD502-9D09-4CB2-8844-B2E9C07B9FE4}" name="Country iso3"/>
@@ -643,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D157" sqref="D67:D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,7 +2271,7 @@
         <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -2099,7 +2297,7 @@
         <v>71</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -2125,7 +2323,7 @@
         <v>72</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -2151,7 +2349,7 @@
         <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -2177,7 +2375,7 @@
         <v>74</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -2203,7 +2401,7 @@
         <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -2229,7 +2427,7 @@
         <v>76</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -2255,7 +2453,7 @@
         <v>77</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -2281,7 +2479,7 @@
         <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2307,7 +2505,7 @@
         <v>79</v>
       </c>
       <c r="D64" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -2333,7 +2531,7 @@
         <v>80</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2359,7 +2557,7 @@
         <v>81</v>
       </c>
       <c r="D66" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -2385,7 +2583,7 @@
         <v>82</v>
       </c>
       <c r="D67" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2411,7 +2609,7 @@
         <v>83</v>
       </c>
       <c r="D68" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E68" t="s">
         <v>25</v>
@@ -2437,7 +2635,7 @@
         <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E69" t="s">
         <v>25</v>
@@ -2463,7 +2661,7 @@
         <v>81</v>
       </c>
       <c r="D70" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E70" t="s">
         <v>25</v>
@@ -2489,7 +2687,7 @@
         <v>82</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -2515,7 +2713,7 @@
         <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -2541,7 +2739,7 @@
         <v>81</v>
       </c>
       <c r="D73" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
         <v>25</v>
@@ -2567,7 +2765,7 @@
         <v>85</v>
       </c>
       <c r="D74" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -2593,7 +2791,7 @@
         <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -2619,7 +2817,7 @@
         <v>78</v>
       </c>
       <c r="D76" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -2645,7 +2843,7 @@
         <v>78</v>
       </c>
       <c r="D77" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E77" t="s">
         <v>25</v>
@@ -2671,7 +2869,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -2697,7 +2895,7 @@
         <v>76</v>
       </c>
       <c r="D79" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
@@ -2723,7 +2921,7 @@
         <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -2749,7 +2947,7 @@
         <v>74</v>
       </c>
       <c r="D81" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -2775,7 +2973,7 @@
         <v>73</v>
       </c>
       <c r="D82" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -2801,7 +2999,7 @@
         <v>83</v>
       </c>
       <c r="D83" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -2827,7 +3025,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E84" t="s">
         <v>25</v>
@@ -2853,7 +3051,7 @@
         <v>71</v>
       </c>
       <c r="D85" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -2879,7 +3077,7 @@
         <v>69</v>
       </c>
       <c r="D86" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -4400,6 +4598,1358 @@
       </c>
       <c r="H144" s="1">
         <v>43871</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>67</v>
+      </c>
+      <c r="B145" t="s">
+        <v>68</v>
+      </c>
+      <c r="C145" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" t="s">
+        <v>93</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145">
+        <v>44899</v>
+      </c>
+      <c r="G145" t="s">
+        <v>94</v>
+      </c>
+      <c r="H145" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>67</v>
+      </c>
+      <c r="B146" t="s">
+        <v>68</v>
+      </c>
+      <c r="C146" t="s">
+        <v>71</v>
+      </c>
+      <c r="D146" t="s">
+        <v>95</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146">
+        <v>8253</v>
+      </c>
+      <c r="G146" t="s">
+        <v>94</v>
+      </c>
+      <c r="H146" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>67</v>
+      </c>
+      <c r="B147" t="s">
+        <v>68</v>
+      </c>
+      <c r="C147" t="s">
+        <v>83</v>
+      </c>
+      <c r="D147" t="s">
+        <v>96</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147">
+        <v>1051</v>
+      </c>
+      <c r="G147" t="s">
+        <v>94</v>
+      </c>
+      <c r="H147" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>67</v>
+      </c>
+      <c r="B148" t="s">
+        <v>68</v>
+      </c>
+      <c r="C148" t="s">
+        <v>73</v>
+      </c>
+      <c r="D148" t="s">
+        <v>97</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148">
+        <v>29142</v>
+      </c>
+      <c r="G148" t="s">
+        <v>94</v>
+      </c>
+      <c r="H148" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>67</v>
+      </c>
+      <c r="B149" t="s">
+        <v>68</v>
+      </c>
+      <c r="C149" t="s">
+        <v>74</v>
+      </c>
+      <c r="D149" t="s">
+        <v>98</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149">
+        <v>445869</v>
+      </c>
+      <c r="G149" t="s">
+        <v>94</v>
+      </c>
+      <c r="H149" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>67</v>
+      </c>
+      <c r="B150" t="s">
+        <v>68</v>
+      </c>
+      <c r="C150" t="s">
+        <v>75</v>
+      </c>
+      <c r="D150" t="s">
+        <v>99</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150">
+        <v>11126</v>
+      </c>
+      <c r="G150" t="s">
+        <v>94</v>
+      </c>
+      <c r="H150" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>67</v>
+      </c>
+      <c r="B151" t="s">
+        <v>68</v>
+      </c>
+      <c r="C151" t="s">
+        <v>76</v>
+      </c>
+      <c r="D151" t="s">
+        <v>100</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151">
+        <v>4008</v>
+      </c>
+      <c r="G151" t="s">
+        <v>94</v>
+      </c>
+      <c r="H151" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>67</v>
+      </c>
+      <c r="B152" t="s">
+        <v>68</v>
+      </c>
+      <c r="C152" t="s">
+        <v>77</v>
+      </c>
+      <c r="D152" t="s">
+        <v>101</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152">
+        <v>84827</v>
+      </c>
+      <c r="G152" t="s">
+        <v>94</v>
+      </c>
+      <c r="H152" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>67</v>
+      </c>
+      <c r="B153" t="s">
+        <v>68</v>
+      </c>
+      <c r="C153" t="s">
+        <v>78</v>
+      </c>
+      <c r="D153" t="s">
+        <v>102</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153">
+        <v>21221</v>
+      </c>
+      <c r="G153" t="s">
+        <v>94</v>
+      </c>
+      <c r="H153" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>67</v>
+      </c>
+      <c r="B154" t="s">
+        <v>68</v>
+      </c>
+      <c r="C154" t="s">
+        <v>79</v>
+      </c>
+      <c r="D154" t="s">
+        <v>103</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154">
+        <v>92826</v>
+      </c>
+      <c r="G154" t="s">
+        <v>94</v>
+      </c>
+      <c r="H154" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>67</v>
+      </c>
+      <c r="B155" t="s">
+        <v>68</v>
+      </c>
+      <c r="C155" t="s">
+        <v>85</v>
+      </c>
+      <c r="D155" t="s">
+        <v>104</v>
+      </c>
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155">
+        <v>15583</v>
+      </c>
+      <c r="G155" t="s">
+        <v>94</v>
+      </c>
+      <c r="H155" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>67</v>
+      </c>
+      <c r="B156" t="s">
+        <v>68</v>
+      </c>
+      <c r="C156" t="s">
+        <v>81</v>
+      </c>
+      <c r="D156" t="s">
+        <v>105</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156">
+        <v>355909</v>
+      </c>
+      <c r="G156" t="s">
+        <v>94</v>
+      </c>
+      <c r="H156" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>67</v>
+      </c>
+      <c r="B157" t="s">
+        <v>68</v>
+      </c>
+      <c r="C157" t="s">
+        <v>82</v>
+      </c>
+      <c r="D157" t="s">
+        <v>106</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157">
+        <v>7246</v>
+      </c>
+      <c r="G157" t="s">
+        <v>94</v>
+      </c>
+      <c r="H157" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>107</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" t="s">
+        <v>108</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158">
+        <v>321886</v>
+      </c>
+      <c r="G158" t="s">
+        <v>109</v>
+      </c>
+      <c r="H158" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E159" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159">
+        <v>336124</v>
+      </c>
+      <c r="G159" t="s">
+        <v>111</v>
+      </c>
+      <c r="H159" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>43</v>
+      </c>
+      <c r="B160" t="s">
+        <v>44</v>
+      </c>
+      <c r="C160" t="s">
+        <v>45</v>
+      </c>
+      <c r="D160" t="s">
+        <v>112</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160">
+        <v>4142</v>
+      </c>
+      <c r="G160" t="s">
+        <v>113</v>
+      </c>
+      <c r="H160" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>43</v>
+      </c>
+      <c r="B161" t="s">
+        <v>44</v>
+      </c>
+      <c r="C161" t="s">
+        <v>47</v>
+      </c>
+      <c r="D161" t="s">
+        <v>114</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161">
+        <v>69984</v>
+      </c>
+      <c r="G161" t="s">
+        <v>113</v>
+      </c>
+      <c r="H161" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>43</v>
+      </c>
+      <c r="B162" t="s">
+        <v>44</v>
+      </c>
+      <c r="C162" t="s">
+        <v>48</v>
+      </c>
+      <c r="D162" t="s">
+        <v>115</v>
+      </c>
+      <c r="E162" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162">
+        <v>2574</v>
+      </c>
+      <c r="G162" t="s">
+        <v>113</v>
+      </c>
+      <c r="H162" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>43</v>
+      </c>
+      <c r="B163" t="s">
+        <v>44</v>
+      </c>
+      <c r="C163" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" t="s">
+        <v>116</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163">
+        <v>890</v>
+      </c>
+      <c r="G163" t="s">
+        <v>113</v>
+      </c>
+      <c r="H163" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>43</v>
+      </c>
+      <c r="B164" t="s">
+        <v>44</v>
+      </c>
+      <c r="C164" t="s">
+        <v>50</v>
+      </c>
+      <c r="D164" t="s">
+        <v>117</v>
+      </c>
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164">
+        <v>3140</v>
+      </c>
+      <c r="G164" t="s">
+        <v>113</v>
+      </c>
+      <c r="H164" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>43</v>
+      </c>
+      <c r="B165" t="s">
+        <v>44</v>
+      </c>
+      <c r="C165" t="s">
+        <v>51</v>
+      </c>
+      <c r="D165" t="s">
+        <v>34</v>
+      </c>
+      <c r="E165" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165">
+        <v>22429</v>
+      </c>
+      <c r="G165" t="s">
+        <v>113</v>
+      </c>
+      <c r="H165" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>43</v>
+      </c>
+      <c r="B166" t="s">
+        <v>44</v>
+      </c>
+      <c r="C166" t="s">
+        <v>52</v>
+      </c>
+      <c r="D166" t="s">
+        <v>118</v>
+      </c>
+      <c r="E166" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166">
+        <v>144899</v>
+      </c>
+      <c r="G166" t="s">
+        <v>113</v>
+      </c>
+      <c r="H166" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>43</v>
+      </c>
+      <c r="B167" t="s">
+        <v>44</v>
+      </c>
+      <c r="C167" t="s">
+        <v>53</v>
+      </c>
+      <c r="D167" t="s">
+        <v>119</v>
+      </c>
+      <c r="E167" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167">
+        <v>39461</v>
+      </c>
+      <c r="G167" t="s">
+        <v>113</v>
+      </c>
+      <c r="H167" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168" t="s">
+        <v>44</v>
+      </c>
+      <c r="C168" t="s">
+        <v>54</v>
+      </c>
+      <c r="D168" t="s">
+        <v>120</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168">
+        <v>5802</v>
+      </c>
+      <c r="G168" t="s">
+        <v>113</v>
+      </c>
+      <c r="H168" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>43</v>
+      </c>
+      <c r="B169" t="s">
+        <v>44</v>
+      </c>
+      <c r="C169" t="s">
+        <v>55</v>
+      </c>
+      <c r="D169" t="s">
+        <v>121</v>
+      </c>
+      <c r="E169" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169">
+        <v>53543</v>
+      </c>
+      <c r="G169" t="s">
+        <v>113</v>
+      </c>
+      <c r="H169" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>122</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170">
+        <v>104588</v>
+      </c>
+      <c r="G170" t="s">
+        <v>123</v>
+      </c>
+      <c r="H170" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" t="s">
+        <v>65</v>
+      </c>
+      <c r="D171" t="s">
+        <v>124</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171">
+        <v>17262</v>
+      </c>
+      <c r="G171" t="s">
+        <v>123</v>
+      </c>
+      <c r="H171" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>125</v>
+      </c>
+      <c r="E172" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172">
+        <v>40241</v>
+      </c>
+      <c r="G172" t="s">
+        <v>123</v>
+      </c>
+      <c r="H172" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" t="s">
+        <v>58</v>
+      </c>
+      <c r="D173" t="s">
+        <v>59</v>
+      </c>
+      <c r="E173" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173">
+        <v>55625</v>
+      </c>
+      <c r="G173" t="s">
+        <v>123</v>
+      </c>
+      <c r="H173" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" t="s">
+        <v>56</v>
+      </c>
+      <c r="D174" t="s">
+        <v>57</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174">
+        <v>82604</v>
+      </c>
+      <c r="G174" t="s">
+        <v>123</v>
+      </c>
+      <c r="H174" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" t="s">
+        <v>21</v>
+      </c>
+      <c r="D175" t="s">
+        <v>126</v>
+      </c>
+      <c r="E175" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175">
+        <v>209252</v>
+      </c>
+      <c r="G175" t="s">
+        <v>127</v>
+      </c>
+      <c r="H175" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176" t="s">
+        <v>20</v>
+      </c>
+      <c r="C176" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" t="s">
+        <v>128</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176">
+        <v>1603044</v>
+      </c>
+      <c r="G176" t="s">
+        <v>127</v>
+      </c>
+      <c r="H176" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B177" t="s">
+        <v>20</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" t="s">
+        <v>129</v>
+      </c>
+      <c r="E177" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177">
+        <v>143759</v>
+      </c>
+      <c r="G177" t="s">
+        <v>127</v>
+      </c>
+      <c r="H177" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>86</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E178" t="s">
+        <v>25</v>
+      </c>
+      <c r="G178" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>132</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E179" t="s">
+        <v>32</v>
+      </c>
+      <c r="F179">
+        <v>947</v>
+      </c>
+      <c r="G179" t="s">
+        <v>134</v>
+      </c>
+      <c r="H179" s="1">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>135</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>42</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E180" t="s">
+        <v>25</v>
+      </c>
+      <c r="G180" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>42</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E181" t="s">
+        <v>32</v>
+      </c>
+      <c r="F181">
+        <v>33817</v>
+      </c>
+      <c r="G181" t="s">
+        <v>134</v>
+      </c>
+      <c r="H181" s="1">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>137</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E182" t="s">
+        <v>25</v>
+      </c>
+      <c r="G182" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>135</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>39</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E183" t="s">
+        <v>25</v>
+      </c>
+      <c r="G183" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>135</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E184" t="s">
+        <v>25</v>
+      </c>
+      <c r="G184" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E185" t="s">
+        <v>32</v>
+      </c>
+      <c r="F185">
+        <v>43833</v>
+      </c>
+      <c r="G185" t="s">
+        <v>134</v>
+      </c>
+      <c r="H185" s="1">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>38</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E186" t="s">
+        <v>25</v>
+      </c>
+      <c r="G186" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>135</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>37</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E187" t="s">
+        <v>25</v>
+      </c>
+      <c r="G187" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>135</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>36</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E188" t="s">
+        <v>25</v>
+      </c>
+      <c r="G188" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>135</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>89</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E189" t="s">
+        <v>25</v>
+      </c>
+      <c r="G189" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>135</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>89</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E190" t="s">
+        <v>25</v>
+      </c>
+      <c r="G190" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>135</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>35</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E191" t="s">
+        <v>25</v>
+      </c>
+      <c r="G191" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>60</v>
+      </c>
+      <c r="B192" t="s">
+        <v>61</v>
+      </c>
+      <c r="C192" t="s">
+        <v>146</v>
+      </c>
+      <c r="E192" t="s">
+        <v>25</v>
+      </c>
+      <c r="F192">
+        <v>403</v>
+      </c>
+      <c r="G192" t="s">
+        <v>147</v>
+      </c>
+      <c r="H192" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>60</v>
+      </c>
+      <c r="B193" t="s">
+        <v>61</v>
+      </c>
+      <c r="C193" t="s">
+        <v>62</v>
+      </c>
+      <c r="E193" t="s">
+        <v>25</v>
+      </c>
+      <c r="F193">
+        <v>62709</v>
+      </c>
+      <c r="G193" t="s">
+        <v>147</v>
+      </c>
+      <c r="H193" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>60</v>
+      </c>
+      <c r="B194" t="s">
+        <v>61</v>
+      </c>
+      <c r="C194" t="s">
+        <v>66</v>
+      </c>
+      <c r="E194" t="s">
+        <v>25</v>
+      </c>
+      <c r="F194">
+        <v>5283</v>
+      </c>
+      <c r="G194" t="s">
+        <v>147</v>
+      </c>
+      <c r="H194" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" t="s">
+        <v>148</v>
+      </c>
+      <c r="D195" t="s">
+        <v>149</v>
+      </c>
+      <c r="E195" t="s">
+        <v>25</v>
+      </c>
+      <c r="F195">
+        <v>825</v>
+      </c>
+      <c r="G195" t="s">
+        <v>123</v>
+      </c>
+      <c r="H195" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196" t="s">
+        <v>65</v>
+      </c>
+      <c r="D196" t="s">
+        <v>124</v>
+      </c>
+      <c r="E196" t="s">
+        <v>25</v>
+      </c>
+      <c r="F196">
+        <v>44741</v>
+      </c>
+      <c r="G196" t="s">
+        <v>123</v>
+      </c>
+      <c r="H196" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>125</v>
+      </c>
+      <c r="E197" t="s">
+        <v>25</v>
+      </c>
+      <c r="F197">
+        <v>5006</v>
+      </c>
+      <c r="G197" t="s">
+        <v>123</v>
+      </c>
+      <c r="H197" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" t="s">
+        <v>150</v>
+      </c>
+      <c r="D198" t="s">
+        <v>151</v>
+      </c>
+      <c r="E198" t="s">
+        <v>25</v>
+      </c>
+      <c r="F198">
+        <v>85</v>
+      </c>
+      <c r="G198" t="s">
+        <v>123</v>
+      </c>
+      <c r="H198" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>152</v>
+      </c>
+      <c r="B199" t="s">
+        <v>153</v>
+      </c>
+      <c r="C199" t="s">
+        <v>154</v>
+      </c>
+      <c r="E199" t="s">
+        <v>25</v>
+      </c>
+      <c r="F199">
+        <v>14350</v>
+      </c>
+      <c r="G199" t="s">
+        <v>155</v>
+      </c>
+      <c r="H199" s="1">
+        <v>44227</v>
       </c>
     </row>
   </sheetData>
@@ -4408,4 +5958,272 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D56D188CBA27BF43BA16AB0991F8810A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d74f8ed3820e849c6c24bebf382cead">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d04cdad-faad-4bbc-9725-fbca26071bed" xmlns:ns3="d4bd7185-3ccc-47d5-be69-542fd420c7c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="92b3107f17917cdf1896d29dfba996e5" ns2:_="" ns3:_="">
+    <xsd:import namespace="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
+    <xsd:import namespace="d4bd7185-3ccc-47d5-be69-542fd420c7c8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2d04cdad-faad-4bbc-9725-fbca26071bed" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d4bd7185-3ccc-47d5-be69-542fd420c7c8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="4" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="3" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54E1C708-D677-401F-958C-F2983695FAAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
+    <ds:schemaRef ds:uri="d4bd7185-3ccc-47d5-be69-542fd420c7c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A81D509A-58F4-48FF-AE4C-32CD11E75837}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B647F25-3174-4F0F-909D-FD4A3D4D0A6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>